--- a/data/trans_orig/P12_2_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P12_2_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75DA8DE7-6E8F-4DDD-B10A-8EBA4F0FD4B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{708EA0AB-FEF5-43DF-96FF-C3ECA983135A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1C2B3059-8837-42AD-B077-898FF0EC75C6}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0ED43A60-6E40-4A09-8BAD-4146D7E9FE9C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="623">
   <si>
     <t>Población que tuvo mucha energía alguna vez o algunas veces en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,1849 +77,1837 @@
     <t>20,08%</t>
   </si>
   <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
   </si>
   <si>
     <t>20,78%</t>
   </si>
   <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
   </si>
   <si>
     <t>20,42%</t>
   </si>
   <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>71,45%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>62,98%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>62,54%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que tuvo mucha energía alguna vez o algunas veces en 2012 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>68,12%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>70,51%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>74,22%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>Población que tuvo mucha energía alguna vez o algunas veces en 2015 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
+  </si>
+  <si>
+    <t>55,44%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>67,09%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>72,66%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
     <t>16,92%</t>
   </si>
   <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
   </si>
   <si>
     <t>83,08%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>68,55%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>77,64%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>62,54%</t>
-  </si>
-  <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que tuvo mucha energía alguna vez o algunas veces en 2012 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>Población que tuvo mucha energía alguna vez o algunas veces en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
   </si>
   <si>
     <t>15,93%</t>
   </si>
   <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
   </si>
   <si>
     <t>84,07%</t>
   </si>
   <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>49,25%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
   </si>
   <si>
     <t>18,58%</t>
   </si>
   <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
   </si>
   <si>
     <t>81,42%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>Población que tuvo mucha energía alguna vez o algunas veces en 2015 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>61,54%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>67,09%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>70,54%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>74,89%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>71,14%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>Población que tuvo mucha energía alguna vez o algunas veces en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>77,46%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
   </si>
 </sst>
 </file>
@@ -2331,7 +2319,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F765438F-1F08-427A-9DB8-0FE3888035AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6093CCC-8255-409B-890F-7E4C8A4B2267}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3263,10 +3251,10 @@
         <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3281,13 +3269,13 @@
         <v>237164</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>196</v>
@@ -3296,13 +3284,13 @@
         <v>201036</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>428</v>
@@ -3311,13 +3299,13 @@
         <v>438200</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>29</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3373,7 +3361,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3385,13 +3373,13 @@
         <v>63070</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>143</v>
@@ -3400,13 +3388,13 @@
         <v>146408</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>207</v>
@@ -3415,13 +3403,13 @@
         <v>209478</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3436,13 +3424,13 @@
         <v>551957</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>478</v>
@@ -3451,13 +3439,13 @@
         <v>491811</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>1012</v>
@@ -3466,13 +3454,13 @@
         <v>1043768</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3528,7 +3516,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3540,13 +3528,13 @@
         <v>218504</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>271</v>
@@ -3555,13 +3543,13 @@
         <v>293475</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>487</v>
@@ -3570,13 +3558,13 @@
         <v>511979</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3591,13 +3579,13 @@
         <v>525291</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>474</v>
@@ -3606,13 +3594,13 @@
         <v>490036</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>994</v>
@@ -3621,13 +3609,13 @@
         <v>1015327</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3695,13 +3683,13 @@
         <v>639218</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>969</v>
@@ -3710,28 +3698,28 @@
         <v>1002566</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>1603</v>
       </c>
       <c r="N28" s="7">
-        <v>1641784</v>
+        <v>1641785</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3746,13 +3734,13 @@
         <v>2637326</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>2328</v>
@@ -3761,13 +3749,13 @@
         <v>2376632</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>4908</v>
@@ -3776,13 +3764,13 @@
         <v>5013956</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3824,7 +3812,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3838,7 +3826,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3862,7 +3850,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE1AE2E-1D11-4DA8-B870-C4C68870A5EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34CED072-626F-4983-B525-17333848A3F3}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3879,7 +3867,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3984,39 +3972,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4029,39 +4017,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4074,39 +4062,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4123,13 +4111,13 @@
         <v>48854</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H7" s="7">
         <v>88</v>
@@ -4138,13 +4126,13 @@
         <v>93900</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="M7" s="7">
         <v>129</v>
@@ -4153,13 +4141,13 @@
         <v>142754</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4174,13 +4162,13 @@
         <v>456673</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="H8" s="7">
         <v>389</v>
@@ -4189,13 +4177,13 @@
         <v>425902</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M8" s="7">
         <v>820</v>
@@ -4204,13 +4192,13 @@
         <v>882575</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4278,13 +4266,13 @@
         <v>49268</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="H10" s="7">
         <v>65</v>
@@ -4293,13 +4281,13 @@
         <v>68840</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M10" s="7">
         <v>111</v>
@@ -4308,13 +4296,13 @@
         <v>118109</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4329,13 +4317,13 @@
         <v>274778</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H11" s="7">
         <v>252</v>
@@ -4344,13 +4332,13 @@
         <v>272180</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M11" s="7">
         <v>525</v>
@@ -4359,13 +4347,13 @@
         <v>546957</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4433,13 +4421,13 @@
         <v>149456</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H13" s="7">
         <v>229</v>
@@ -4448,13 +4436,13 @@
         <v>244442</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="M13" s="7">
         <v>370</v>
@@ -4463,13 +4451,13 @@
         <v>393898</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4484,13 +4472,13 @@
         <v>518299</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="H14" s="7">
         <v>398</v>
@@ -4499,13 +4487,13 @@
         <v>431754</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="M14" s="7">
         <v>882</v>
@@ -4514,13 +4502,13 @@
         <v>950053</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4588,13 +4576,13 @@
         <v>33899</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="H16" s="7">
         <v>69</v>
@@ -4603,13 +4591,13 @@
         <v>72602</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="M16" s="7">
         <v>101</v>
@@ -4618,13 +4606,13 @@
         <v>106502</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4639,13 +4627,13 @@
         <v>178719</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="H17" s="7">
         <v>143</v>
@@ -4654,13 +4642,13 @@
         <v>146989</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="M17" s="7">
         <v>307</v>
@@ -4669,13 +4657,13 @@
         <v>325707</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4743,13 +4731,13 @@
         <v>40222</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="H19" s="7">
         <v>48</v>
@@ -4758,13 +4746,13 @@
         <v>48746</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>256</v>
+        <v>77</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="M19" s="7">
         <v>86</v>
@@ -4773,13 +4761,13 @@
         <v>88968</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4794,13 +4782,13 @@
         <v>233759</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="H20" s="7">
         <v>220</v>
@@ -4809,28 +4797,28 @@
         <v>230334</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>265</v>
+        <v>87</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M20" s="7">
         <v>443</v>
       </c>
       <c r="N20" s="7">
-        <v>464094</v>
+        <v>464093</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4872,7 +4860,7 @@
         <v>529</v>
       </c>
       <c r="N21" s="7">
-        <v>553062</v>
+        <v>553061</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4886,7 +4874,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4898,13 +4886,13 @@
         <v>134781</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H22" s="7">
         <v>161</v>
@@ -4913,13 +4901,13 @@
         <v>180009</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M22" s="7">
         <v>282</v>
@@ -4928,13 +4916,13 @@
         <v>314790</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4949,13 +4937,13 @@
         <v>528007</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H23" s="7">
         <v>474</v>
@@ -4964,13 +4952,13 @@
         <v>512862</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M23" s="7">
         <v>971</v>
@@ -4979,13 +4967,13 @@
         <v>1040869</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5041,7 +5029,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5053,13 +5041,13 @@
         <v>136104</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>291</v>
+        <v>17</v>
       </c>
       <c r="H25" s="7">
         <v>177</v>
@@ -5068,10 +5056,10 @@
         <v>195946</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>293</v>
+        <v>166</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>294</v>
@@ -5089,7 +5077,7 @@
         <v>296</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>297</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5104,13 +5092,13 @@
         <v>640926</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="H26" s="7">
         <v>579</v>
@@ -5119,13 +5107,13 @@
         <v>626843</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>303</v>
+        <v>174</v>
       </c>
       <c r="M26" s="7">
         <v>1171</v>
@@ -5134,13 +5122,13 @@
         <v>1267768</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>305</v>
+        <v>139</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5208,13 +5196,13 @@
         <v>592584</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H28" s="7">
         <v>837</v>
@@ -5223,13 +5211,13 @@
         <v>904486</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="M28" s="7">
         <v>1379</v>
@@ -5238,13 +5226,13 @@
         <v>1497070</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5259,13 +5247,13 @@
         <v>2831161</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="H29" s="7">
         <v>2455</v>
@@ -5274,13 +5262,13 @@
         <v>2646863</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="M29" s="7">
         <v>5119</v>
@@ -5289,13 +5277,13 @@
         <v>5478024</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5351,7 +5339,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -5375,7 +5363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31BC3F76-572E-4E63-8D00-FDFEA3A56AF0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A2BBAE-7A70-4D83-858E-8E00ECAB01F7}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5392,7 +5380,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5499,13 +5487,13 @@
         <v>80315</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="H4" s="7">
         <v>104</v>
@@ -5514,13 +5502,13 @@
         <v>111029</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="M4" s="7">
         <v>178</v>
@@ -5529,13 +5517,13 @@
         <v>191344</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5550,13 +5538,13 @@
         <v>212459</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="H5" s="7">
         <v>173</v>
@@ -5565,13 +5553,13 @@
         <v>177674</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="M5" s="7">
         <v>364</v>
@@ -5580,13 +5568,13 @@
         <v>390133</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5654,13 +5642,13 @@
         <v>63747</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="H7" s="7">
         <v>88</v>
@@ -5669,13 +5657,13 @@
         <v>99030</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="M7" s="7">
         <v>151</v>
@@ -5684,13 +5672,13 @@
         <v>162777</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5705,13 +5693,13 @@
         <v>437682</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H8" s="7">
         <v>394</v>
@@ -5720,13 +5708,13 @@
         <v>421900</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="M8" s="7">
         <v>805</v>
@@ -5735,13 +5723,13 @@
         <v>859583</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5809,13 +5797,13 @@
         <v>66565</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="H10" s="7">
         <v>76</v>
@@ -5824,13 +5812,13 @@
         <v>81607</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M10" s="7">
         <v>150</v>
@@ -5839,13 +5827,13 @@
         <v>148172</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>368</v>
+        <v>74</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5860,13 +5848,13 @@
         <v>252000</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="H11" s="7">
         <v>254</v>
@@ -5875,13 +5863,13 @@
         <v>252787</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M11" s="7">
         <v>515</v>
@@ -5890,13 +5878,13 @@
         <v>504787</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>377</v>
+        <v>84</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5964,13 +5952,13 @@
         <v>75832</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="H13" s="7">
         <v>94</v>
@@ -5979,13 +5967,13 @@
         <v>105631</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="M13" s="7">
         <v>168</v>
@@ -5994,13 +5982,13 @@
         <v>181463</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6015,13 +6003,13 @@
         <v>294132</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="H14" s="7">
         <v>263</v>
@@ -6030,13 +6018,13 @@
         <v>280771</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="M14" s="7">
         <v>543</v>
@@ -6045,13 +6033,13 @@
         <v>574903</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6119,13 +6107,13 @@
         <v>45643</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="H16" s="7">
         <v>58</v>
@@ -6134,13 +6122,13 @@
         <v>60054</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="M16" s="7">
         <v>106</v>
@@ -6149,13 +6137,13 @@
         <v>105697</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>405</v>
+        <v>374</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6170,13 +6158,13 @@
         <v>165578</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="H17" s="7">
         <v>165</v>
@@ -6185,13 +6173,13 @@
         <v>158533</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="M17" s="7">
         <v>329</v>
@@ -6200,13 +6188,13 @@
         <v>324111</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>415</v>
+        <v>383</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6274,13 +6262,13 @@
         <v>33402</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="H19" s="7">
         <v>43</v>
@@ -6289,13 +6277,13 @@
         <v>49615</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="M19" s="7">
         <v>78</v>
@@ -6304,13 +6292,13 @@
         <v>83017</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6325,13 +6313,13 @@
         <v>229721</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="H20" s="7">
         <v>220</v>
@@ -6340,13 +6328,13 @@
         <v>223500</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="M20" s="7">
         <v>444</v>
@@ -6355,13 +6343,13 @@
         <v>453221</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6417,7 +6405,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6429,13 +6417,13 @@
         <v>108870</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="H22" s="7">
         <v>150</v>
@@ -6444,13 +6432,13 @@
         <v>167450</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="M22" s="7">
         <v>250</v>
@@ -6459,13 +6447,13 @@
         <v>276319</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>440</v>
+        <v>310</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6480,13 +6468,13 @@
         <v>547688</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="H23" s="7">
         <v>495</v>
@@ -6495,13 +6483,13 @@
         <v>522573</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="M23" s="7">
         <v>975</v>
@@ -6510,13 +6498,13 @@
         <v>1070262</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>449</v>
+        <v>320</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6572,7 +6560,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6584,13 +6572,13 @@
         <v>56860</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="H25" s="7">
         <v>97</v>
@@ -6599,13 +6587,13 @@
         <v>112400</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>51</v>
+        <v>444</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="M25" s="7">
         <v>154</v>
@@ -6614,13 +6602,13 @@
         <v>169260</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6635,13 +6623,13 @@
         <v>719746</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="H26" s="7">
         <v>658</v>
@@ -6650,13 +6638,13 @@
         <v>713767</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>60</v>
+        <v>454</v>
       </c>
       <c r="M26" s="7">
         <v>1349</v>
@@ -6665,13 +6653,13 @@
         <v>1433513</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6739,13 +6727,13 @@
         <v>531234</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="H28" s="7">
         <v>710</v>
@@ -6754,13 +6742,13 @@
         <v>786816</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>472</v>
+        <v>54</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>292</v>
+        <v>462</v>
       </c>
       <c r="M28" s="7">
         <v>1235</v>
@@ -6769,13 +6757,13 @@
         <v>1318049</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6790,13 +6778,13 @@
         <v>2859006</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="H29" s="7">
         <v>2622</v>
@@ -6805,13 +6793,13 @@
         <v>2751506</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>301</v>
+        <v>470</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>480</v>
+        <v>63</v>
       </c>
       <c r="M29" s="7">
         <v>5324</v>
@@ -6820,13 +6808,13 @@
         <v>5610513</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6882,7 +6870,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -6906,7 +6894,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0172F68C-F951-433D-8BFB-2BC4EDF2EBCD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E099851-B7B1-48EC-8134-8D90134400E8}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6923,7 +6911,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7030,13 +7018,13 @@
         <v>63901</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>36</v>
+        <v>477</v>
       </c>
       <c r="H4" s="7">
         <v>205</v>
@@ -7045,13 +7033,13 @@
         <v>95656</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="M4" s="7">
         <v>299</v>
@@ -7060,13 +7048,13 @@
         <v>159556</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7081,13 +7069,13 @@
         <v>196397</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>46</v>
+        <v>485</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="H5" s="7">
         <v>333</v>
@@ -7096,13 +7084,13 @@
         <v>175747</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="M5" s="7">
         <v>570</v>
@@ -7111,13 +7099,13 @@
         <v>372144</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7185,13 +7173,13 @@
         <v>57191</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="H7" s="7">
         <v>147</v>
@@ -7200,13 +7188,13 @@
         <v>102807</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>348</v>
+        <v>497</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="M7" s="7">
         <v>196</v>
@@ -7215,13 +7203,13 @@
         <v>159998</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7236,13 +7224,13 @@
         <v>462106</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="H8" s="7">
         <v>570</v>
@@ -7251,13 +7239,13 @@
         <v>451759</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>358</v>
+        <v>507</v>
       </c>
       <c r="M8" s="7">
         <v>903</v>
@@ -7266,13 +7254,13 @@
         <v>913866</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7340,13 +7328,13 @@
         <v>52552</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>518</v>
+        <v>500</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="H10" s="7">
         <v>100</v>
@@ -7355,13 +7343,13 @@
         <v>63780</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>472</v>
+        <v>515</v>
       </c>
       <c r="M10" s="7">
         <v>167</v>
@@ -7370,13 +7358,13 @@
         <v>116332</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7391,13 +7379,13 @@
         <v>268716</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>527</v>
+        <v>510</v>
       </c>
       <c r="H11" s="7">
         <v>434</v>
@@ -7406,13 +7394,13 @@
         <v>307204</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>480</v>
+        <v>522</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M11" s="7">
         <v>726</v>
@@ -7421,13 +7409,13 @@
         <v>575920</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7495,13 +7483,13 @@
         <v>59680</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="H13" s="7">
         <v>138</v>
@@ -7513,10 +7501,10 @@
         <v>295</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="M13" s="7">
         <v>198</v>
@@ -7525,13 +7513,13 @@
         <v>148413</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>131</v>
+        <v>530</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7546,13 +7534,13 @@
         <v>262560</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="H14" s="7">
         <v>459</v>
@@ -7561,13 +7549,13 @@
         <v>338710</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="M14" s="7">
         <v>691</v>
@@ -7576,13 +7564,13 @@
         <v>601269</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>140</v>
+        <v>538</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7650,13 +7638,13 @@
         <v>75223</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="H16" s="7">
         <v>269</v>
@@ -7665,13 +7653,13 @@
         <v>118640</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="M16" s="7">
         <v>389</v>
@@ -7680,13 +7668,13 @@
         <v>193863</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7701,13 +7689,13 @@
         <v>121525</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="H17" s="7">
         <v>222</v>
@@ -7716,13 +7704,13 @@
         <v>112765</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="M17" s="7">
         <v>381</v>
@@ -7731,13 +7719,13 @@
         <v>234289</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7805,13 +7793,13 @@
         <v>46787</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>565</v>
+        <v>115</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>566</v>
+        <v>263</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>293</v>
+        <v>559</v>
       </c>
       <c r="H19" s="7">
         <v>88</v>
@@ -7820,13 +7808,13 @@
         <v>43652</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>567</v>
+        <v>344</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="M19" s="7">
         <v>161</v>
@@ -7835,13 +7823,13 @@
         <v>90439</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7856,13 +7844,13 @@
         <v>230436</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>572</v>
+        <v>125</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>303</v>
+        <v>564</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>573</v>
+        <v>272</v>
       </c>
       <c r="H20" s="7">
         <v>372</v>
@@ -7871,13 +7859,13 @@
         <v>231970</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>574</v>
+        <v>354</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="M20" s="7">
         <v>670</v>
@@ -7886,13 +7874,13 @@
         <v>462406</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7948,7 +7936,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7960,13 +7948,13 @@
         <v>126788</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>470</v>
+        <v>570</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="H22" s="7">
         <v>264</v>
@@ -7975,13 +7963,13 @@
         <v>185678</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="M22" s="7">
         <v>388</v>
@@ -7990,13 +7978,13 @@
         <v>312467</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8011,13 +7999,13 @@
         <v>500966</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>477</v>
+        <v>580</v>
       </c>
       <c r="H23" s="7">
         <v>696</v>
@@ -8026,13 +8014,13 @@
         <v>618525</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="M23" s="7">
         <v>1171</v>
@@ -8041,13 +8029,13 @@
         <v>1119490</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8103,7 +8091,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8115,13 +8103,13 @@
         <v>86218</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="H25" s="7">
         <v>209</v>
@@ -8130,13 +8118,13 @@
         <v>158341</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="M25" s="7">
         <v>299</v>
@@ -8145,13 +8133,13 @@
         <v>244559</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8166,13 +8154,13 @@
         <v>773210</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="H26" s="7">
         <v>853</v>
@@ -8181,13 +8169,13 @@
         <v>710093</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="M26" s="7">
         <v>1525</v>
@@ -8196,13 +8184,13 @@
         <v>1483303</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8270,13 +8258,13 @@
         <v>568339</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="H28" s="7">
         <v>1420</v>
@@ -8285,28 +8273,28 @@
         <v>857287</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>202</v>
+        <v>609</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="M28" s="7">
         <v>2097</v>
       </c>
       <c r="N28" s="7">
-        <v>1425626</v>
+        <v>1425627</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>296</v>
+        <v>612</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8321,13 +8309,13 @@
         <v>2815917</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="H29" s="7">
         <v>3939</v>
@@ -8336,13 +8324,13 @@
         <v>2946772</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>211</v>
+        <v>619</v>
       </c>
       <c r="M29" s="7">
         <v>6637</v>
@@ -8351,13 +8339,13 @@
         <v>5762689</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>306</v>
+        <v>622</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8399,7 +8387,7 @@
         <v>8734</v>
       </c>
       <c r="N30" s="7">
-        <v>7188315</v>
+        <v>7188316</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -8413,7 +8401,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P12_2_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P12_2_R-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{708EA0AB-FEF5-43DF-96FF-C3ECA983135A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05DBE645-A5ED-42D2-8F12-3456588E4691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0ED43A60-6E40-4A09-8BAD-4146D7E9FE9C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{00502EE5-A15F-4019-BEAC-0C64CB3F4FD3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="617">
   <si>
     <t>Población que tuvo mucha energía alguna vez o algunas veces en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>20,08%</t>
   </si>
   <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
   </si>
   <si>
     <t>20,78%</t>
   </si>
   <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
   </si>
   <si>
     <t>20,42%</t>
   </si>
   <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>79,92%</t>
   </si>
   <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
   </si>
   <si>
     <t>79,22%</t>
   </si>
   <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
   </si>
   <si>
     <t>79,58%</t>
   </si>
   <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1611 +140,1611 @@
     <t>23,44%</t>
   </si>
   <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
   </si>
   <si>
     <t>33,55%</t>
   </si>
   <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>71,45%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>60,01%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>62,41%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>62,54%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que tuvo mucha energía alguna vez o algunas veces en 2012 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
     <t>29,58%</t>
   </si>
   <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
   </si>
   <si>
     <t>70,42%</t>
   </si>
   <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>Población que tuvo mucha energía alguna vez o algunas veces en 2016 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>67,09%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
   </si>
   <si>
     <t>22,69%</t>
   </si>
   <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
   </si>
   <si>
     <t>77,31%</t>
   </si>
   <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>62,98%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>62,54%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>68,96%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que tuvo mucha energía alguna vez o algunas veces en 2012 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>72,66%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
   </si>
   <si>
     <t>21,88%</t>
   </si>
   <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
   </si>
   <si>
     <t>78,12%</t>
   </si>
   <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>67,7%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>68,12%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>59,84%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>72,6%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>Población que tuvo mucha energía alguna vez o algunas veces en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>49,25%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
   </si>
   <si>
     <t>13,15%</t>
   </si>
   <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
   </si>
   <si>
     <t>86,85%</t>
   </si>
   <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>70,51%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>74,22%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>Población que tuvo mucha energía alguna vez o algunas veces en 2015 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>67,06%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>61,54%</t>
-  </si>
-  <si>
-    <t>55,44%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>67,09%</t>
-  </si>
-  <si>
-    <t>63,17%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
     <t>84,16%</t>
   </si>
   <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>Población que tuvo mucha energía alguna vez o algunas veces en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>49,25%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
     <t>80,43%</t>
   </si>
   <si>
     <t>87,12%</t>
   </si>
   <si>
-    <t>81,1%</t>
-  </si>
-  <si>
     <t>86,03%</t>
   </si>
   <si>
@@ -1769,9 +1769,6 @@
     <t>21,82%</t>
   </si>
   <si>
-    <t>16,54%</t>
-  </si>
-  <si>
     <t>24,65%</t>
   </si>
   <si>
@@ -1799,9 +1796,6 @@
     <t>75,35%</t>
   </si>
   <si>
-    <t>83,46%</t>
-  </si>
-  <si>
     <t>10,03%</t>
   </si>
   <si>
@@ -1862,18 +1856,12 @@
     <t>15,35%</t>
   </si>
   <si>
-    <t>18,22%</t>
-  </si>
-  <si>
     <t>22,54%</t>
   </si>
   <si>
     <t>20,25%</t>
   </si>
   <si>
-    <t>23,96%</t>
-  </si>
-  <si>
     <t>19,83%</t>
   </si>
   <si>
@@ -1886,16 +1874,10 @@
     <t>83,21%</t>
   </si>
   <si>
-    <t>81,78%</t>
-  </si>
-  <si>
     <t>84,65%</t>
   </si>
   <si>
     <t>77,46%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
   </si>
   <si>
     <t>79,75%</t>
@@ -2319,7 +2301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6093CCC-8255-409B-890F-7E4C8A4B2267}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99E9F200-637F-4CB9-951B-BAB23F7086DF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3731,7 +3713,7 @@
         <v>2580</v>
       </c>
       <c r="D29" s="7">
-        <v>2637326</v>
+        <v>2637325</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>173</v>
@@ -3782,7 +3764,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3850,7 +3832,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34CED072-626F-4983-B525-17333848A3F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24EDC113-7DE6-4B94-82F0-8442A9A059A2}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4454,10 +4436,10 @@
         <v>227</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4472,13 +4454,13 @@
         <v>518299</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="H14" s="7">
         <v>398</v>
@@ -4487,13 +4469,13 @@
         <v>431754</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M14" s="7">
         <v>882</v>
@@ -4502,13 +4484,13 @@
         <v>950053</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>237</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>238</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4576,13 +4558,13 @@
         <v>33899</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="H16" s="7">
         <v>69</v>
@@ -4591,13 +4573,13 @@
         <v>72602</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M16" s="7">
         <v>101</v>
@@ -4606,13 +4588,13 @@
         <v>106502</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4627,13 +4609,13 @@
         <v>178719</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="H17" s="7">
         <v>143</v>
@@ -4642,13 +4624,13 @@
         <v>146989</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="M17" s="7">
         <v>307</v>
@@ -4657,13 +4639,13 @@
         <v>325707</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4731,13 +4713,13 @@
         <v>40222</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="H19" s="7">
         <v>48</v>
@@ -4746,13 +4728,13 @@
         <v>48746</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>77</v>
+        <v>258</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>261</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>86</v>
@@ -4761,13 +4743,13 @@
         <v>88968</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4782,13 +4764,13 @@
         <v>233759</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="H20" s="7">
         <v>220</v>
@@ -4797,13 +4779,13 @@
         <v>230334</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>87</v>
+        <v>266</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>268</v>
+        <v>122</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="M20" s="7">
         <v>443</v>
@@ -4812,13 +4794,13 @@
         <v>464093</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4886,13 +4868,13 @@
         <v>134781</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="H22" s="7">
         <v>161</v>
@@ -4901,13 +4883,13 @@
         <v>180009</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="M22" s="7">
         <v>282</v>
@@ -4916,13 +4898,13 @@
         <v>314790</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4937,13 +4919,13 @@
         <v>528007</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="H23" s="7">
         <v>474</v>
@@ -4952,13 +4934,13 @@
         <v>512862</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M23" s="7">
         <v>971</v>
@@ -4967,13 +4949,13 @@
         <v>1040869</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5041,13 +5023,13 @@
         <v>136104</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="H25" s="7">
         <v>177</v>
@@ -5056,10 +5038,10 @@
         <v>195946</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>294</v>
@@ -5077,7 +5059,7 @@
         <v>296</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>130</v>
+        <v>297</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5092,13 +5074,13 @@
         <v>640926</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>27</v>
+        <v>299</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H26" s="7">
         <v>579</v>
@@ -5107,13 +5089,13 @@
         <v>626843</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>174</v>
+        <v>303</v>
       </c>
       <c r="M26" s="7">
         <v>1171</v>
@@ -5122,13 +5104,13 @@
         <v>1267768</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>139</v>
+        <v>305</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5196,13 +5178,13 @@
         <v>592584</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>304</v>
+        <v>260</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="H28" s="7">
         <v>837</v>
@@ -5211,13 +5193,13 @@
         <v>904486</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="M28" s="7">
         <v>1379</v>
@@ -5226,13 +5208,13 @@
         <v>1497070</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5247,13 +5229,13 @@
         <v>2831161</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>314</v>
+        <v>268</v>
       </c>
       <c r="H29" s="7">
         <v>2455</v>
@@ -5262,13 +5244,13 @@
         <v>2646863</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M29" s="7">
         <v>5119</v>
@@ -5277,13 +5259,13 @@
         <v>5478024</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5363,7 +5345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A2BBAE-7A70-4D83-858E-8E00ECAB01F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D8C3F80-3D6B-48EC-A156-166B7B0050BB}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5380,7 +5362,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5487,13 +5469,13 @@
         <v>80315</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H4" s="7">
         <v>104</v>
@@ -5502,13 +5484,13 @@
         <v>111029</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="M4" s="7">
         <v>178</v>
@@ -5517,13 +5499,13 @@
         <v>191344</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5538,13 +5520,13 @@
         <v>212459</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H5" s="7">
         <v>173</v>
@@ -5553,13 +5535,13 @@
         <v>177674</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="M5" s="7">
         <v>364</v>
@@ -5568,13 +5550,13 @@
         <v>390133</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5642,13 +5624,13 @@
         <v>63747</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="H7" s="7">
         <v>88</v>
@@ -5657,13 +5639,13 @@
         <v>99030</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="M7" s="7">
         <v>151</v>
@@ -5672,13 +5654,13 @@
         <v>162777</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5693,13 +5675,13 @@
         <v>437682</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H8" s="7">
         <v>394</v>
@@ -5708,13 +5690,13 @@
         <v>421900</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="M8" s="7">
         <v>805</v>
@@ -5723,13 +5705,13 @@
         <v>859583</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5797,13 +5779,13 @@
         <v>66565</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="H10" s="7">
         <v>76</v>
@@ -5812,13 +5794,13 @@
         <v>81607</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="M10" s="7">
         <v>150</v>
@@ -5827,13 +5809,13 @@
         <v>148172</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>74</v>
+        <v>366</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5848,13 +5830,13 @@
         <v>252000</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="H11" s="7">
         <v>254</v>
@@ -5863,13 +5845,13 @@
         <v>252787</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="M11" s="7">
         <v>515</v>
@@ -5878,13 +5860,13 @@
         <v>504787</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>84</v>
+        <v>375</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5952,13 +5934,13 @@
         <v>75832</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="H13" s="7">
         <v>94</v>
@@ -5967,13 +5949,13 @@
         <v>105631</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="M13" s="7">
         <v>168</v>
@@ -5982,13 +5964,13 @@
         <v>181463</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>381</v>
+        <v>293</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6003,13 +5985,13 @@
         <v>294132</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="H14" s="7">
         <v>263</v>
@@ -6018,13 +6000,13 @@
         <v>280771</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="M14" s="7">
         <v>543</v>
@@ -6033,13 +6015,13 @@
         <v>574903</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>391</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6107,13 +6089,13 @@
         <v>45643</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="H16" s="7">
         <v>58</v>
@@ -6122,13 +6104,13 @@
         <v>60054</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="M16" s="7">
         <v>106</v>
@@ -6137,13 +6119,13 @@
         <v>105697</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>374</v>
+        <v>401</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6158,13 +6140,13 @@
         <v>165578</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="H17" s="7">
         <v>165</v>
@@ -6173,13 +6155,13 @@
         <v>158533</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>390</v>
+        <v>406</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="M17" s="7">
         <v>329</v>
@@ -6188,13 +6170,13 @@
         <v>324111</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>383</v>
+        <v>411</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6262,13 +6244,13 @@
         <v>33402</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="H19" s="7">
         <v>43</v>
@@ -6277,13 +6259,13 @@
         <v>49615</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>409</v>
+        <v>165</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="M19" s="7">
         <v>78</v>
@@ -6292,13 +6274,13 @@
         <v>83017</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6313,13 +6295,13 @@
         <v>229721</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="H20" s="7">
         <v>220</v>
@@ -6328,13 +6310,13 @@
         <v>223500</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>418</v>
+        <v>175</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="M20" s="7">
         <v>444</v>
@@ -6343,13 +6325,13 @@
         <v>453221</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6417,13 +6399,13 @@
         <v>108870</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="H22" s="7">
         <v>150</v>
@@ -6432,13 +6414,13 @@
         <v>167450</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>428</v>
+        <v>278</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="M22" s="7">
         <v>250</v>
@@ -6447,13 +6429,13 @@
         <v>276319</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6468,13 +6450,13 @@
         <v>547688</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="H23" s="7">
         <v>495</v>
@@ -6483,13 +6465,13 @@
         <v>522573</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>437</v>
+        <v>288</v>
       </c>
       <c r="M23" s="7">
         <v>975</v>
@@ -6498,13 +6480,13 @@
         <v>1070262</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6572,13 +6554,13 @@
         <v>56860</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="H25" s="7">
         <v>97</v>
@@ -6587,13 +6569,13 @@
         <v>112400</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>445</v>
+        <v>15</v>
       </c>
       <c r="M25" s="7">
         <v>154</v>
@@ -6602,13 +6584,13 @@
         <v>169260</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6623,13 +6605,13 @@
         <v>719746</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H26" s="7">
         <v>658</v>
@@ -6638,10 +6620,10 @@
         <v>713767</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>453</v>
+        <v>26</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>454</v>
@@ -6742,10 +6724,10 @@
         <v>786816</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>461</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>462</v>
@@ -6757,13 +6739,13 @@
         <v>1318049</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>464</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6778,13 +6760,13 @@
         <v>2859006</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>468</v>
       </c>
       <c r="H29" s="7">
         <v>2622</v>
@@ -6793,13 +6775,13 @@
         <v>2751506</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>469</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M29" s="7">
         <v>5324</v>
@@ -6808,13 +6790,13 @@
         <v>5610513</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>471</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6894,7 +6876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E099851-B7B1-48EC-8134-8D90134400E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA3E6927-EFF8-459D-BF45-EB4A3758EBCF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6911,7 +6893,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7018,13 +7000,13 @@
         <v>63901</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>475</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>477</v>
       </c>
       <c r="H4" s="7">
         <v>205</v>
@@ -7033,13 +7015,13 @@
         <v>95656</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>478</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>480</v>
       </c>
       <c r="M4" s="7">
         <v>299</v>
@@ -7048,13 +7030,13 @@
         <v>159556</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>481</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7069,13 +7051,13 @@
         <v>196397</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>484</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>486</v>
       </c>
       <c r="H5" s="7">
         <v>333</v>
@@ -7084,13 +7066,13 @@
         <v>175747</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>487</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>489</v>
       </c>
       <c r="M5" s="7">
         <v>570</v>
@@ -7099,13 +7081,13 @@
         <v>372144</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>490</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7173,13 +7155,13 @@
         <v>57191</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>493</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>495</v>
       </c>
       <c r="H7" s="7">
         <v>147</v>
@@ -7188,13 +7170,13 @@
         <v>102807</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>496</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>498</v>
       </c>
       <c r="M7" s="7">
         <v>196</v>
@@ -7203,13 +7185,13 @@
         <v>159998</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>499</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7224,13 +7206,13 @@
         <v>462106</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>502</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>504</v>
       </c>
       <c r="H8" s="7">
         <v>570</v>
@@ -7239,13 +7221,13 @@
         <v>451759</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>505</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>507</v>
       </c>
       <c r="M8" s="7">
         <v>903</v>
@@ -7254,13 +7236,13 @@
         <v>913866</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>508</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7328,13 +7310,13 @@
         <v>52552</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="H10" s="7">
         <v>100</v>
@@ -7343,13 +7325,13 @@
         <v>63780</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>513</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>515</v>
       </c>
       <c r="M10" s="7">
         <v>167</v>
@@ -7358,13 +7340,13 @@
         <v>116332</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>516</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7379,13 +7361,13 @@
         <v>268716</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="H11" s="7">
         <v>434</v>
@@ -7394,13 +7376,13 @@
         <v>307204</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>521</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>523</v>
       </c>
       <c r="M11" s="7">
         <v>726</v>
@@ -7409,13 +7391,13 @@
         <v>575920</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>524</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7483,13 +7465,13 @@
         <v>59680</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>527</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>529</v>
       </c>
       <c r="H13" s="7">
         <v>138</v>
@@ -7501,10 +7483,10 @@
         <v>295</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="M13" s="7">
         <v>198</v>
@@ -7513,13 +7495,13 @@
         <v>148413</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7534,13 +7516,13 @@
         <v>262560</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>534</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>535</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>536</v>
       </c>
       <c r="H14" s="7">
         <v>459</v>
@@ -7549,13 +7531,13 @@
         <v>338710</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="M14" s="7">
         <v>691</v>
@@ -7564,13 +7546,13 @@
         <v>601269</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7638,13 +7620,13 @@
         <v>75223</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>541</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>542</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>543</v>
       </c>
       <c r="H16" s="7">
         <v>269</v>
@@ -7653,13 +7635,13 @@
         <v>118640</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>544</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>546</v>
       </c>
       <c r="M16" s="7">
         <v>389</v>
@@ -7668,13 +7650,13 @@
         <v>193863</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>547</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7689,13 +7671,13 @@
         <v>121525</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>550</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>552</v>
       </c>
       <c r="H17" s="7">
         <v>222</v>
@@ -7704,13 +7686,13 @@
         <v>112765</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>553</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>555</v>
       </c>
       <c r="M17" s="7">
         <v>381</v>
@@ -7719,13 +7701,13 @@
         <v>234289</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>556</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>557</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7793,13 +7775,13 @@
         <v>46787</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>263</v>
+        <v>557</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H19" s="7">
         <v>88</v>
@@ -7808,7 +7790,7 @@
         <v>43652</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>344</v>
+        <v>559</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>560</v>
@@ -7823,13 +7805,13 @@
         <v>90439</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>562</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>563</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7844,13 +7826,13 @@
         <v>230436</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>564</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="H20" s="7">
         <v>372</v>
@@ -7859,13 +7841,13 @@
         <v>231970</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>354</v>
+        <v>565</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="M20" s="7">
         <v>670</v>
@@ -7874,10 +7856,10 @@
         <v>462406</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>567</v>
+        <v>143</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>568</v>
@@ -7981,10 +7963,10 @@
         <v>575</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>576</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7999,13 +7981,13 @@
         <v>500966</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>578</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>579</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>580</v>
       </c>
       <c r="H23" s="7">
         <v>696</v>
@@ -8014,13 +7996,13 @@
         <v>618525</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>582</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>583</v>
       </c>
       <c r="M23" s="7">
         <v>1171</v>
@@ -8029,13 +8011,13 @@
         <v>1119490</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="P23" s="7" t="s">
-        <v>585</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>586</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8103,13 +8085,13 @@
         <v>86218</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>587</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>589</v>
       </c>
       <c r="H25" s="7">
         <v>209</v>
@@ -8118,13 +8100,13 @@
         <v>158341</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>590</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>591</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>592</v>
       </c>
       <c r="M25" s="7">
         <v>299</v>
@@ -8133,13 +8115,13 @@
         <v>244559</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>593</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8154,13 +8136,13 @@
         <v>773210</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>596</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>597</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>598</v>
       </c>
       <c r="H26" s="7">
         <v>853</v>
@@ -8169,13 +8151,13 @@
         <v>710093</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>599</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>600</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>601</v>
       </c>
       <c r="M26" s="7">
         <v>1525</v>
@@ -8184,13 +8166,13 @@
         <v>1483303</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>602</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>603</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8258,13 +8240,13 @@
         <v>568339</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>607</v>
+        <v>433</v>
       </c>
       <c r="H28" s="7">
         <v>1420</v>
@@ -8273,13 +8255,13 @@
         <v>857287</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>610</v>
+        <v>310</v>
       </c>
       <c r="M28" s="7">
         <v>2097</v>
@@ -8288,13 +8270,13 @@
         <v>1425627</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8309,13 +8291,13 @@
         <v>2815917</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>615</v>
+        <v>441</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="H29" s="7">
         <v>3939</v>
@@ -8324,13 +8306,13 @@
         <v>2946772</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>618</v>
+        <v>319</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="M29" s="7">
         <v>6637</v>
@@ -8339,13 +8321,13 @@
         <v>5762689</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
